--- a/data/trans_orig/P6513-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2CCEC5D-C93A-4886-B4E3-460020F49476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A5D684E-4E82-4C20-B12D-8F06A2264D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{491115BC-9C69-4313-96F5-ECB74AC3DEE6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A7C83F0-C72B-4150-9D30-87C6633E879D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,92%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>33,11%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>43,99%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>36,43%</t>
   </si>
   <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>43,1%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
   </si>
   <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -167,25 +167,25 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>22,59%</t>
+    <t>22,44%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,529 +197,538 @@
     <t>17,55%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
   </si>
   <si>
     <t>38,01%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>49,91%</t>
   </si>
   <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B562720-4762-4F99-B6E7-9E512767C77F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25EF813-0C55-49C1-93DE-76644C1B52C7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2292,7 +2301,7 @@
         <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -2301,13 +2310,13 @@
         <v>82802</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>194</v>
@@ -2316,13 +2325,13 @@
         <v>192282</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2346,13 @@
         <v>173983</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>149</v>
@@ -2352,13 +2361,13 @@
         <v>157700</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>329</v>
@@ -2367,13 +2376,13 @@
         <v>331683</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2397,13 @@
         <v>171979</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>90</v>
@@ -2403,13 +2412,13 @@
         <v>97180</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>265</v>
@@ -2418,13 +2427,13 @@
         <v>269158</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2448,13 @@
         <v>100493</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>50</v>
@@ -2454,13 +2463,13 @@
         <v>51378</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>154</v>
@@ -2469,13 +2478,13 @@
         <v>151871</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2552,13 @@
         <v>370194</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>238</v>
@@ -2558,13 +2567,13 @@
         <v>249287</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>592</v>
@@ -2573,13 +2582,13 @@
         <v>619480</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2603,13 @@
         <v>665721</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>403</v>
@@ -2609,13 +2618,13 @@
         <v>421043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>1042</v>
@@ -2624,13 +2633,13 @@
         <v>1086764</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2654,13 @@
         <v>577184</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>235</v>
@@ -2660,13 +2669,13 @@
         <v>246908</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>788</v>
@@ -2675,13 +2684,13 @@
         <v>824091</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2705,13 @@
         <v>291137</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>106</v>
@@ -2711,13 +2720,13 @@
         <v>109000</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>383</v>
@@ -2726,13 +2735,13 @@
         <v>400136</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2797,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6513-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A5D684E-4E82-4C20-B12D-8F06A2264D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D92FD2-BF2F-4FBD-AE34-815613E7AFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A7C83F0-C72B-4150-9D30-87C6633E879D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4936460-D013-4AF0-AC2A-7060B55D3B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,28 +74,28 @@
     <t>11,92%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>33,11%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
   </si>
   <si>
     <t>43,99%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
   </si>
   <si>
     <t>36,43%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>43,1%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
   </si>
   <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>11,87%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>10,32%</t>
@@ -176,559 +176,550 @@
     <t>3,3%</t>
   </si>
   <si>
-    <t>25,06%</t>
+    <t>24,89%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
     <t>14,9%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25EF813-0C55-49C1-93DE-76644C1B52C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365E181-BEB3-485D-8D2F-3D4356A70C35}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1662,7 +1653,7 @@
         <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1668,13 @@
         <v>39922</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -1692,13 +1683,13 @@
         <v>6023</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -1707,13 +1698,13 @@
         <v>45946</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1760,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1772,13 @@
         <v>116647</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -1796,13 +1787,13 @@
         <v>75473</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -1811,13 +1802,13 @@
         <v>192120</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1823,13 @@
         <v>183312</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>96</v>
@@ -1847,13 +1838,13 @@
         <v>103489</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>265</v>
@@ -1862,13 +1853,13 @@
         <v>286802</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1874,13 @@
         <v>171177</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -1898,13 +1889,13 @@
         <v>57458</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -1913,13 +1904,13 @@
         <v>228636</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1925,13 @@
         <v>87758</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -1949,13 +1940,13 @@
         <v>31305</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -1964,13 +1955,13 @@
         <v>119063</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2017,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2029,13 @@
         <v>79985</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -2053,13 +2044,13 @@
         <v>61923</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -2068,13 +2059,13 @@
         <v>141908</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2080,13 @@
         <v>165594</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -2104,13 +2095,13 @@
         <v>83190</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>235</v>
@@ -2119,13 +2110,13 @@
         <v>248783</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2131,13 @@
         <v>104508</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>49</v>
@@ -2155,13 +2146,13 @@
         <v>50068</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>148</v>
@@ -2170,13 +2161,13 @@
         <v>154576</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2182,13 @@
         <v>56348</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2206,13 +2197,13 @@
         <v>17766</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -2221,13 +2212,13 @@
         <v>74114</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,7 +2274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2295,13 +2286,13 @@
         <v>109479</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -2310,13 +2301,13 @@
         <v>82802</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>194</v>
@@ -2325,13 +2316,13 @@
         <v>192282</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2337,13 @@
         <v>173983</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>149</v>
@@ -2361,13 +2352,13 @@
         <v>157700</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>329</v>
@@ -2376,13 +2367,13 @@
         <v>331683</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2388,13 @@
         <v>171979</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>90</v>
@@ -2412,13 +2403,13 @@
         <v>97180</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>265</v>
@@ -2427,13 +2418,13 @@
         <v>269158</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2439,13 @@
         <v>100493</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>50</v>
@@ -2463,13 +2454,13 @@
         <v>51378</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>154</v>
@@ -2478,13 +2469,13 @@
         <v>151871</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2543,13 @@
         <v>370194</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>238</v>
@@ -2567,13 +2558,13 @@
         <v>249287</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>592</v>
@@ -2582,13 +2573,13 @@
         <v>619480</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2594,13 @@
         <v>665721</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>403</v>
@@ -2618,13 +2609,13 @@
         <v>421043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>1042</v>
@@ -2633,13 +2624,13 @@
         <v>1086764</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2645,13 @@
         <v>577184</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>235</v>
@@ -2669,13 +2660,13 @@
         <v>246908</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>788</v>
@@ -2684,13 +2675,13 @@
         <v>824091</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2696,13 @@
         <v>291137</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>106</v>
@@ -2720,13 +2711,13 @@
         <v>109000</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>383</v>
@@ -2735,13 +2726,13 @@
         <v>400136</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2788,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6513-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D92FD2-BF2F-4FBD-AE34-815613E7AFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D933CA47-CBBA-441D-84F1-2CFD227F3D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4936460-D013-4AF0-AC2A-7060B55D3B2E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7563AA7-945C-4CD7-A479-FDF300F399DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>11,92%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,310 +104,313 @@
     <t>33,11%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>43,99%</t>
   </si>
   <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
     <t>21,46%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>14,4%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -416,310 +419,307 @@
     <t>19,68%</t>
   </si>
   <si>
-    <t>15,4%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>24,29%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>22,81%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>32,45%</t>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365E181-BEB3-485D-8D2F-3D4356A70C35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2F2B27-FD8F-4783-991E-2689414AC67D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1653,7 +1653,7 @@
         <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1668,13 @@
         <v>39922</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -1683,13 +1683,13 @@
         <v>6023</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -1698,13 +1698,13 @@
         <v>45946</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1772,13 +1772,13 @@
         <v>116647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -1787,13 +1787,13 @@
         <v>75473</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -1802,13 +1802,13 @@
         <v>192120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1823,13 @@
         <v>183312</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>96</v>
@@ -1838,13 +1838,13 @@
         <v>103489</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>265</v>
@@ -1853,13 +1853,13 @@
         <v>286802</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1874,13 @@
         <v>171177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -1889,13 +1889,13 @@
         <v>57458</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -1904,13 +1904,13 @@
         <v>228636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1925,13 @@
         <v>87758</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -1940,13 +1940,13 @@
         <v>31305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -1955,13 +1955,13 @@
         <v>119063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2017,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2029,13 @@
         <v>79985</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -2044,13 +2044,13 @@
         <v>61923</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -2059,13 +2059,13 @@
         <v>141908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2080,13 @@
         <v>165594</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -2095,13 +2095,13 @@
         <v>83190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>235</v>
@@ -2110,13 +2110,13 @@
         <v>248783</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2131,13 @@
         <v>104508</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>49</v>
@@ -2146,13 +2146,13 @@
         <v>50068</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>148</v>
@@ -2161,13 +2161,13 @@
         <v>154576</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2182,13 @@
         <v>56348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2197,13 +2197,13 @@
         <v>17766</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -2212,13 +2212,13 @@
         <v>74114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,7 +2274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2286,13 +2286,13 @@
         <v>109479</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -2301,13 +2301,13 @@
         <v>82802</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>194</v>
@@ -2316,13 +2316,13 @@
         <v>192282</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2337,13 @@
         <v>173983</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>149</v>
@@ -2352,13 +2352,13 @@
         <v>157700</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>329</v>
@@ -2367,13 +2367,13 @@
         <v>331683</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2388,13 @@
         <v>171979</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>90</v>
@@ -2403,13 +2403,13 @@
         <v>97180</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>265</v>
@@ -2418,13 +2418,13 @@
         <v>269158</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2439,13 @@
         <v>100493</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>50</v>
@@ -2454,13 +2454,13 @@
         <v>51378</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>154</v>
@@ -2469,13 +2469,13 @@
         <v>151871</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>370194</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>238</v>
@@ -2558,13 +2558,13 @@
         <v>249287</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>592</v>
@@ -2573,13 +2573,13 @@
         <v>619480</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2594,13 @@
         <v>665721</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>403</v>
@@ -2609,13 +2609,13 @@
         <v>421043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>1042</v>
@@ -2624,13 +2624,13 @@
         <v>1086764</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2645,13 @@
         <v>577184</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>235</v>
@@ -2660,13 +2660,13 @@
         <v>246908</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="M31" s="7">
         <v>788</v>

--- a/data/trans_orig/P6513-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D933CA47-CBBA-441D-84F1-2CFD227F3D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E80C1C2E-11EF-409B-91A5-90B9D59CE873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7563AA7-945C-4CD7-A479-FDF300F399DA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AD190768-BDC4-4C73-AE51-81035DB81D32}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -65,625 +65,520 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>6,62%</t>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>22,96%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
   </si>
   <si>
     <t>27,18%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
   </si>
   <si>
     <t>28,12%</t>
@@ -1134,8 +1029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2F2B27-FD8F-4783-991E-2689414AC67D}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00E8810-5D13-498C-84EB-BE14E5F16A55}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1252,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>6647</v>
+        <v>64082</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1267,10 +1162,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>3766</v>
+        <v>29088</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1282,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>10414</v>
+        <v>93170</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1303,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D5" s="7">
-        <v>18458</v>
+        <v>142832</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1318,10 +1213,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I5" s="7">
-        <v>10774</v>
+        <v>76664</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1333,10 +1228,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="N5" s="7">
-        <v>29232</v>
+        <v>219496</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1354,10 +1249,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="D6" s="7">
-        <v>24027</v>
+        <v>129520</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1369,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I6" s="7">
-        <v>7425</v>
+        <v>42202</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1384,10 +1279,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>31452</v>
+        <v>171721</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1405,10 +1300,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>6615</v>
+        <v>46538</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1420,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>2528</v>
+        <v>8551</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1435,10 +1330,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="N7" s="7">
-        <v>9143</v>
+        <v>55088</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1456,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>366</v>
       </c>
       <c r="D8" s="7">
-        <v>55748</v>
+        <v>382971</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1471,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>156505</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1486,10 +1381,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>76</v>
+        <v>519</v>
       </c>
       <c r="N8" s="7">
-        <v>80241</v>
+        <v>539476</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1509,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D9" s="7">
-        <v>57435</v>
+        <v>116647</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1524,10 +1419,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I9" s="7">
-        <v>25322</v>
+        <v>75473</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1539,10 +1434,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="N9" s="7">
-        <v>82757</v>
+        <v>192120</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1560,10 +1455,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7">
-        <v>124373</v>
+        <v>183312</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1575,10 +1470,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I10" s="7">
-        <v>65890</v>
+        <v>103489</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1590,10 +1485,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="N10" s="7">
-        <v>190263</v>
+        <v>286802</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1611,10 +1506,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7">
-        <v>105492</v>
+        <v>171177</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1626,10 +1521,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I11" s="7">
-        <v>34777</v>
+        <v>57458</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1641,10 +1536,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="N11" s="7">
-        <v>140269</v>
+        <v>228636</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1662,10 +1557,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D12" s="7">
-        <v>39922</v>
+        <v>87758</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1677,10 +1572,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I12" s="7">
-        <v>6023</v>
+        <v>31305</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1692,10 +1587,10 @@
         <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>45946</v>
+        <v>119063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1713,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>507</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>558895</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1728,10 +1623,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>267726</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1743,10 +1638,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>756</v>
       </c>
       <c r="N13" s="7">
-        <v>459235</v>
+        <v>826621</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1766,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7">
-        <v>116647</v>
+        <v>79985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1781,10 +1676,10 @@
         <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>75473</v>
+        <v>61923</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1796,10 +1691,10 @@
         <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="N14" s="7">
-        <v>192120</v>
+        <v>141908</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1817,10 +1712,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D15" s="7">
-        <v>183312</v>
+        <v>165594</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -1832,10 +1727,10 @@
         <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>103489</v>
+        <v>83190</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -1847,10 +1742,10 @@
         <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="N15" s="7">
-        <v>286802</v>
+        <v>248783</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -1868,10 +1763,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7">
-        <v>171177</v>
+        <v>104508</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -1883,10 +1778,10 @@
         <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>57458</v>
+        <v>50068</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -1898,10 +1793,10 @@
         <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="N16" s="7">
-        <v>228636</v>
+        <v>154576</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -1919,10 +1814,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>87758</v>
+        <v>56348</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -1934,10 +1829,10 @@
         <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>31305</v>
+        <v>17766</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -1949,10 +1844,10 @@
         <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="N17" s="7">
-        <v>119063</v>
+        <v>74114</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -1970,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>507</v>
+        <v>375</v>
       </c>
       <c r="D18" s="7">
-        <v>558895</v>
+        <v>406434</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1985,10 +1880,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="I18" s="7">
-        <v>267726</v>
+        <v>212946</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2000,10 +1895,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>756</v>
+        <v>588</v>
       </c>
       <c r="N18" s="7">
-        <v>826621</v>
+        <v>619380</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2023,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7">
-        <v>79985</v>
+        <v>109479</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>126</v>
@@ -2038,10 +1933,10 @@
         <v>128</v>
       </c>
       <c r="H19" s="7">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I19" s="7">
-        <v>61923</v>
+        <v>82802</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>129</v>
@@ -2050,22 +1945,22 @@
         <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="7">
+        <v>194</v>
+      </c>
+      <c r="N19" s="7">
+        <v>192282</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="7">
-        <v>138</v>
-      </c>
-      <c r="N19" s="7">
-        <v>141908</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,49 +1969,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D20" s="7">
-        <v>165594</v>
+        <v>173983</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>149</v>
+      </c>
+      <c r="I20" s="7">
+        <v>157700</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="7">
-        <v>83</v>
-      </c>
-      <c r="I20" s="7">
-        <v>83190</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>329</v>
+      </c>
+      <c r="N20" s="7">
+        <v>331683</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M20" s="7">
-        <v>235</v>
-      </c>
-      <c r="N20" s="7">
-        <v>248783</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2020,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="D21" s="7">
-        <v>104508</v>
+        <v>171979</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>90</v>
+      </c>
+      <c r="I21" s="7">
+        <v>97180</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="7">
-        <v>49</v>
-      </c>
-      <c r="I21" s="7">
-        <v>50068</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>265</v>
+      </c>
+      <c r="N21" s="7">
+        <v>269158</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="M21" s="7">
-        <v>148</v>
-      </c>
-      <c r="N21" s="7">
-        <v>154576</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,49 +2071,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7">
-        <v>56348</v>
+        <v>100493</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="7">
+        <v>50</v>
+      </c>
+      <c r="I22" s="7">
+        <v>51378</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="7">
-        <v>17</v>
-      </c>
-      <c r="I22" s="7">
-        <v>17766</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>154</v>
+      </c>
+      <c r="N22" s="7">
+        <v>151871</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="M22" s="7">
-        <v>67</v>
-      </c>
-      <c r="N22" s="7">
-        <v>74114</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="D23" s="7">
-        <v>406434</v>
+        <v>555935</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2242,10 +2137,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>213</v>
+        <v>367</v>
       </c>
       <c r="I23" s="7">
-        <v>212946</v>
+        <v>389060</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2257,10 +2152,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>588</v>
+        <v>942</v>
       </c>
       <c r="N23" s="7">
-        <v>619380</v>
+        <v>944995</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2274,55 +2169,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="D24" s="7">
-        <v>109479</v>
+        <v>370194</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="7">
+        <v>238</v>
+      </c>
+      <c r="I24" s="7">
+        <v>249287</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
-        <v>78</v>
-      </c>
-      <c r="I24" s="7">
-        <v>82802</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>592</v>
+      </c>
+      <c r="N24" s="7">
+        <v>619480</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M24" s="7">
-        <v>194</v>
-      </c>
-      <c r="N24" s="7">
-        <v>192282</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,49 +2226,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>180</v>
+        <v>639</v>
       </c>
       <c r="D25" s="7">
-        <v>173983</v>
+        <v>665721</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="7">
+        <v>403</v>
+      </c>
+      <c r="I25" s="7">
+        <v>421043</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="7">
-        <v>149</v>
-      </c>
-      <c r="I25" s="7">
-        <v>157700</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>1042</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1086764</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="M25" s="7">
-        <v>329</v>
-      </c>
-      <c r="N25" s="7">
-        <v>331683</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2277,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>175</v>
+        <v>553</v>
       </c>
       <c r="D26" s="7">
-        <v>171979</v>
+        <v>577184</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="7">
+        <v>235</v>
+      </c>
+      <c r="I26" s="7">
+        <v>246908</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>788</v>
+      </c>
+      <c r="N26" s="7">
+        <v>824091</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="7">
-        <v>90</v>
-      </c>
-      <c r="I26" s="7">
-        <v>97180</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="M26" s="7">
-        <v>265</v>
-      </c>
-      <c r="N26" s="7">
-        <v>269158</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,49 +2328,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="D27" s="7">
-        <v>100493</v>
+        <v>291137</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="7">
+        <v>106</v>
+      </c>
+      <c r="I27" s="7">
+        <v>109000</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="7">
-        <v>50</v>
-      </c>
-      <c r="I27" s="7">
-        <v>51378</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>383</v>
+      </c>
+      <c r="N27" s="7">
+        <v>400136</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="M27" s="7">
-        <v>154</v>
-      </c>
-      <c r="N27" s="7">
-        <v>151871</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>575</v>
+        <v>1823</v>
       </c>
       <c r="D28" s="7">
-        <v>555935</v>
+        <v>1904235</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2499,10 +2394,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>367</v>
+        <v>982</v>
       </c>
       <c r="I28" s="7">
-        <v>389060</v>
+        <v>1026237</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2514,10 +2409,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>942</v>
+        <v>2805</v>
       </c>
       <c r="N28" s="7">
-        <v>944995</v>
+        <v>2930472</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2530,273 +2425,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>354</v>
-      </c>
-      <c r="D29" s="7">
-        <v>370194</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="7">
-        <v>238</v>
-      </c>
-      <c r="I29" s="7">
-        <v>249287</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M29" s="7">
-        <v>592</v>
-      </c>
-      <c r="N29" s="7">
-        <v>619480</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>639</v>
-      </c>
-      <c r="D30" s="7">
-        <v>665721</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="7">
-        <v>403</v>
-      </c>
-      <c r="I30" s="7">
-        <v>421043</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1042</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1086764</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>553</v>
-      </c>
-      <c r="D31" s="7">
-        <v>577184</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="7">
-        <v>235</v>
-      </c>
-      <c r="I31" s="7">
-        <v>246908</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M31" s="7">
-        <v>788</v>
-      </c>
-      <c r="N31" s="7">
-        <v>824091</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>277</v>
-      </c>
-      <c r="D32" s="7">
-        <v>291137</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H32" s="7">
-        <v>106</v>
-      </c>
-      <c r="I32" s="7">
-        <v>109000</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M32" s="7">
-        <v>383</v>
-      </c>
-      <c r="N32" s="7">
-        <v>400136</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1823</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1904235</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>982</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1026237</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2805</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2930472</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>228</v>
+      <c r="A29" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
